--- a/docs/MPYS.xlsx
+++ b/docs/MPYS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="MPYS Sn" sheetId="2" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
-  <si>
-    <t>Müşteri</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>limit</t>
   </si>
@@ -47,15 +44,9 @@
     <t>Ort. Gecikme Gün Bakiyesi (TL)</t>
   </si>
   <si>
-    <t>kar</t>
-  </si>
-  <si>
     <t>Kar %</t>
   </si>
   <si>
-    <t>yok</t>
-  </si>
-  <si>
     <t>1.</t>
   </si>
   <si>
@@ -77,21 +68,9 @@
     <t>7.</t>
   </si>
   <si>
-    <t>Son 3 ay ortalama siparişi</t>
-  </si>
-  <si>
-    <t>Çek Dahil Toplam Risk</t>
-  </si>
-  <si>
     <t>Son 12 Ay Toplam Ciro</t>
   </si>
   <si>
-    <t>Son 12 Ay İade %si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son 3 ay ile Son 11 aylık İade %si karşılaştırması 	</t>
-  </si>
-  <si>
     <t>Kategori</t>
   </si>
   <si>
@@ -224,9 +203,6 @@
     <t>%20 ve üzeri</t>
   </si>
   <si>
-    <t>Son 3 ay ortalama İade %si</t>
-  </si>
-  <si>
     <t>warrant_state</t>
   </si>
   <si>
@@ -258,6 +234,30 @@
   </si>
   <si>
     <t>last_month_payback_comparison</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>total_risk_including_cheque</t>
+  </si>
+  <si>
+    <t>avg_order_amount_last_three_months</t>
+  </si>
+  <si>
+    <t>last_twelve_months_payback_perc</t>
+  </si>
+  <si>
+    <t>avg_last_three_months_payback_perc</t>
+  </si>
+  <si>
+    <t>last_three_months_payback_comparison</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>profit_percent</t>
   </si>
 </sst>
 </file>
@@ -808,95 +808,97 @@
   </sheetPr>
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="3"/>
-    <col min="10" max="10" width="13.77734375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.33203125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.109375" style="3" customWidth="1"/>
     <col min="16" max="16" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="34" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="32" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F1" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="S1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="T1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -916,9 +918,7 @@
       <c r="E2" s="4">
         <v>509428.57142857142</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H10" si="0">B2/7</f>
@@ -978,9 +978,7 @@
       <c r="E3" s="1">
         <v>127142.85714285714</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
@@ -1040,9 +1038,7 @@
       <c r="E4" s="1">
         <v>98571.428571428565</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="4"/>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -1102,9 +1098,7 @@
       <c r="E5" s="1">
         <v>61428.571428571428</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="4"/>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
@@ -1114,9 +1108,7 @@
         <v>45000</v>
       </c>
       <c r="J5" s="15"/>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
+      <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="1">
@@ -1164,9 +1156,7 @@
       <c r="E6" s="1">
         <v>67714.28571428571</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="4"/>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
@@ -1226,9 +1216,7 @@
       <c r="E7" s="1">
         <v>79142.857142857145</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="4"/>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
@@ -1238,9 +1226,7 @@
         <v>113000</v>
       </c>
       <c r="J7" s="15"/>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
+      <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="1">
@@ -1288,9 +1274,7 @@
       <c r="E8" s="1">
         <v>130714.28571428571</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="4"/>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
@@ -1300,9 +1284,7 @@
         <v>125000</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
+      <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="1">
@@ -1350,9 +1332,7 @@
       <c r="E9" s="1">
         <v>210000</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="4"/>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
@@ -1362,9 +1342,7 @@
         <v>313000</v>
       </c>
       <c r="J9" s="15"/>
-      <c r="K9" s="15">
-        <v>0</v>
-      </c>
+      <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="1">
@@ -1412,9 +1390,7 @@
       <c r="E10" s="1">
         <v>45571.428571428572</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="4"/>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
@@ -1424,9 +1400,7 @@
         <v>300000</v>
       </c>
       <c r="J10" s="15"/>
-      <c r="K10" s="15">
-        <v>0</v>
-      </c>
+      <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="1">
@@ -1603,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C31" sqref="C31:D34"/>
     </sheetView>
   </sheetViews>
@@ -1622,125 +1596,125 @@
   <sheetData>
     <row r="1" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="37" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="19" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" s="21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D3" s="22">
         <v>3</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C4" s="21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" s="22">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D5" s="22">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D6" s="22">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="36"/>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C8" s="21" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D8" s="22">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C9" s="21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D9" s="22">
         <v>10</v>
@@ -1748,7 +1722,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D10" s="22">
         <v>7</v>
@@ -1756,7 +1730,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" s="21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D11" s="22">
         <v>5</v>
@@ -1764,7 +1738,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C12" s="21" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D12" s="22">
         <v>3</v>
@@ -1772,16 +1746,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C14" s="21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D14" s="29">
         <v>3</v>
@@ -1789,7 +1763,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C15" s="21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D15" s="29">
         <v>5</v>
@@ -1797,7 +1771,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C16" s="21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D16" s="29">
         <v>10</v>
@@ -1805,7 +1779,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" s="21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D17" s="29">
         <v>15</v>
@@ -1813,16 +1787,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C19" s="21" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D19" s="22">
         <v>5</v>
@@ -1830,7 +1804,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20" s="21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D20" s="22">
         <v>10</v>
@@ -1838,7 +1812,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" s="21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D21" s="22">
         <v>15</v>
@@ -1846,16 +1820,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="36"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C23" s="21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D23" s="22">
         <v>5</v>
@@ -1863,7 +1837,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" s="21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D24" s="22">
         <v>8</v>
@@ -1871,7 +1845,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" s="21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D25" s="22">
         <v>10</v>
@@ -1879,16 +1853,16 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C26" s="36"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" s="21" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D27" s="22">
         <v>5</v>
@@ -1897,7 +1871,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D28" s="22">
         <v>10</v>
@@ -1905,7 +1879,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" s="21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D29" s="22">
         <v>15</v>
@@ -1913,15 +1887,15 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" s="21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D31" s="22">
         <v>15</v>
@@ -1929,7 +1903,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C32" s="21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D32" s="22">
         <v>10</v>
@@ -1937,7 +1911,7 @@
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D33" s="22">
         <v>5</v>
@@ -1945,7 +1919,7 @@
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D34" s="22">
         <v>3</v>
